--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170929周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
   <si>
     <t>项目名称</t>
   </si>
@@ -95,48 +100,26 @@
   </si>
   <si>
     <t>陈平</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.后端管理系统--人工干预投票数据修改
+2.江西金曲大选活动接口和大网流量销售测试上线
+3.咪咕汇活动星光城接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -156,6 +139,45 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -212,49 +234,49 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -267,6 +289,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -315,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,9 +373,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,6 +425,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,23 +621,23 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -608,145 +667,153 @@
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20170925</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20170930</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -763,7 +830,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -781,7 +848,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -817,7 +884,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -835,31 +902,31 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -874,45 +941,45 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170929周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -48,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐后台</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -60,64 +58,70 @@
     <t>杜智恒</t>
   </si>
   <si>
-    <t>咪咕音乐后台</t>
+    <t>1.初步设计规划gateway项目的ui管理系统                  2.初步设计文档和架构</t>
+  </si>
+  <si>
+    <t>代码，文档</t>
   </si>
   <si>
     <t>凌河源</t>
-  </si>
-  <si>
-    <t>陆晨曦</t>
-  </si>
-  <si>
-    <t>赵小平</t>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>王琪</t>
-  </si>
-  <si>
-    <t>罗健</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>陈平</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.后端管理系统--人工干预投票数据修改
 2.江西金曲大选活动接口和大网流量销售测试上线
 3.咪咕汇活动星光城接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆晨曦</t>
+  </si>
+  <si>
+    <t>赵小平</t>
+  </si>
+  <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>王琪</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>张文韬</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,20 +132,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -151,12 +143,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -177,13 +163,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,12 +320,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -231,13 +545,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -249,49 +805,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -340,7 +940,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,26 +973,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,23 +1008,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,374 +1178,383 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="34.5" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20170925</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20170930</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="51.75" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20170925</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20170930</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
-        <v>20170925</v>
-      </c>
-      <c r="F4" s="5">
-        <v>20170930</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>项目名称</t>
   </si>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.对代码进行findbugs检错，并规范代码格式
+2.修复通过标签查询歌单接口的日志上报等已知缺陷</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -116,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -163,7 +167,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +195,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -192,15 +238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,96 +262,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,25 +330,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,157 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,32 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,8 +571,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +603,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,136 +659,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1187,7 +1185,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1407,7 +1405,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="34.5" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1420,10 +1418,18 @@
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="6"/>
+      <c r="E11" s="6">
+        <v>20170925</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20170930</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" ht="17.25" spans="1:8">
       <c r="A12" s="6" t="s">
@@ -1433,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1451,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1469,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1487,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1517,7 +1523,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t>项目名称</t>
   </si>
@@ -95,6 +95,16 @@
   </si>
   <si>
     <t>陈平</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码，文档</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
+2.演唱会互动栏目同步刷新调测优化（新版通知，明星榜，图片广告，我的排名，排行榜）
+3.灰度监控接口调用情况开发</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -562,7 +575,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -730,7 +743,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -743,10 +756,18 @@
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="E9" s="5">
+        <v>20170925</v>
+      </c>
+      <c r="F9" s="5">
+        <v>20170929</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">

--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐后台</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>杜智恒</t>
   </si>
   <si>
-    <t>咪咕音乐后台</t>
-  </si>
-  <si>
     <t>凌河源</t>
   </si>
   <si>
@@ -74,45 +74,54 @@
   </si>
   <si>
     <t>罗健</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>陈平</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码，文档</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
 2.演唱会互动栏目同步刷新调测优化（新版通知，明星榜，图片广告，我的排名，排行榜）
 3.灰度监控接口调用情况开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码，文档</t>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>张文韬</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>20170929</t>
+  </si>
+  <si>
+    <t>演唱会相关资料的修改，MIGUM2.0及MUGUMS项目演唱会相关业务的跟踪，guava的学习与理解，项目中异步处理、消息队列等等功能的封装过程及原理的理解</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +144,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -142,36 +157,161 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +320,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -219,63 +545,358 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -566,374 +1187,383 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="69" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20170925</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20170929</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="69" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="15">
         <v>20170925</v>
       </c>
-      <c r="F9" s="5">
-        <v>20170929</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="F15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="G15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -95,16 +95,20 @@
   </si>
   <si>
     <t>陈平</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码，文档</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
 2.演唱会互动栏目同步刷新调测优化（新版通知，明星榜，图片广告，我的排名，排行榜）
 3.灰度监控接口调用情况开发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码，文档</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -260,14 +264,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -575,7 +585,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,11 +772,11 @@
       <c r="F9" s="5">
         <v>20170929</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -836,10 +846,16 @@
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="5"/>
+      <c r="E13" s="5">
+        <v>20170925</v>
+      </c>
+      <c r="F13" s="5">
+        <v>20170929</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -895,39 +911,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -109,6 +109,13 @@
   </si>
   <si>
     <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1： 完善设计开发文档
+2：配置站点对应得开放时间，判断站点是否开放公共代码开发，
+4：站点干预值开发，调用解析栏目公共类中的站点缓存，转换成以前活动点赞相对应得干预值数据
+3：MS后台系统拉分支，修改活动点赞代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -267,16 +274,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,7 +592,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H14" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,7 +840,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -852,8 +859,10 @@
       <c r="F13" s="5">
         <v>20170929</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -911,39 +920,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
+      <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐后台</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>杜智恒</t>
   </si>
   <si>
-    <t>咪咕音乐后台</t>
-  </si>
-  <si>
     <t>凌河源</t>
   </si>
   <si>
@@ -74,56 +74,62 @@
   </si>
   <si>
     <t>罗健</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>陈平</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
 2.演唱会互动栏目同步刷新调测优化（新版通知，明星榜，图片广告，我的排名，排行榜）
 3.灰度监控接口调用情况开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>代码，文档</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>张文韬</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>曾昌林</t>
   </si>
   <si>
     <t>1： 完善设计开发文档
 2：配置站点对应得开放时间，判断站点是否开放公共代码开发，
 4：站点干预值开发，调用解析栏目公共类中的站点缓存，转换成以前活动点赞相对应得干预值数据
 3：MS后台系统拉分支，修改活动点赞代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>1、TLCSS系统拉分支，重构三线客服系统，设计原型界面
+2、根据需求重新建表，增加功能，改善系统：整合综合日志查询界面，添加消息即时通知功能，添加桌面菜单可自选常用功能。
+3、遇到问题：以前 很多代码都不能使用，需要更改每个模块源代码。</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +152,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -153,36 +165,161 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,12 +328,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -230,69 +553,358 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -583,382 +1195,391 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H13:H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="69" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20170925</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20170929</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" ht="103.5" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
         <v>20170925</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F13" s="6">
         <v>20170929</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="8" t="s">
+    </row>
+    <row r="14" ht="120.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20170925</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20170929</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
-        <v>20170925</v>
-      </c>
-      <c r="F13" s="5">
-        <v>20170929</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -68,6 +68,13 @@
   </si>
   <si>
     <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.开发并自测完成
+2.和客户端进行联调</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>王琪</t>
@@ -100,9 +107,6 @@
 2：配置站点对应得开放时间，判断站点是否开放公共代码开发，
 4：站点干预值开发，调用解析栏目公共类中的站点缓存，转换成以前活动点赞相对应得干预值数据
 3：MS后台系统拉分支，修改活动点赞代码</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>何娟</t>
@@ -124,9 +128,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -171,74 +175,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,11 +226,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,50 +280,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,19 +338,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,163 +488,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +552,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,6 +602,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,59 +630,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,148 +655,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1203,8 +1201,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1336,7 +1334,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="34.5" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1351,8 +1349,12 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="7" t="s">
@@ -1362,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1380,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1392,10 +1394,10 @@
         <v>20170929</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1406,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1424,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1442,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1460,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1472,10 +1474,10 @@
         <v>20170929</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="120.75" spans="1:8">
@@ -1486,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1498,10 +1500,10 @@
         <v>20170929</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:8">
@@ -1512,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1542,7 +1544,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>项目名称</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>杜智恒</t>
+  </si>
+  <si>
+    <t>1.开发gateway项目管理系统ui界面                             2.管理系统的后台代码demo                                      3.ui界面文档说明</t>
+  </si>
+  <si>
+    <t>代码，文档</t>
   </si>
   <si>
     <t>凌河源</t>
@@ -86,9 +92,6 @@
     <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
 2.演唱会互动栏目同步刷新调测优化（新版通知，明星榜，图片广告，我的排名，排行榜）
 3.灰度监控接口调用情况开发</t>
-  </si>
-  <si>
-    <t>代码，文档</t>
   </si>
   <si>
     <t>陈平</t>
@@ -175,14 +178,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +272,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -203,8 +287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,110 +297,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -338,181 +341,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,21 +565,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -606,11 +594,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,11 +646,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,136 +670,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1202,7 +1205,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1210,7 +1213,7 @@
     <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.9333333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
@@ -1262,7 +1265,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" ht="17.25" spans="1:8">
+    <row r="3" ht="51.75" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1275,10 +1278,18 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="E3" s="6">
+        <v>20170925</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20170929</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" ht="17.25" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -1288,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -1306,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1324,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1342,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1350,10 +1361,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
@@ -1364,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1382,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1394,10 +1405,10 @@
         <v>20170929</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1408,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1426,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1444,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1462,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1474,10 +1485,10 @@
         <v>20170929</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="120.75" spans="1:8">
@@ -1488,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1500,10 +1511,10 @@
         <v>20170929</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:8">
@@ -1514,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1544,7 +1555,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>项目名称</t>
   </si>
@@ -55,6 +55,12 @@
     <t>北京烽火</t>
   </si>
   <si>
+    <t>开发并完成自测</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>杜智恒</t>
   </si>
   <si>
@@ -78,9 +84,6 @@
   <si>
     <t>1.开发并自测完成
 2.和客户端进行联调</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>王琪</t>
@@ -131,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -185,7 +188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,15 +209,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,85 +284,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,12 +344,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,163 +410,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,17 +567,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,13 +608,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,136 +673,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -923,7 +926,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1205,7 +1208,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1262,8 +1265,12 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="51.75" spans="1:8">
       <c r="A3" s="6" t="s">
@@ -1273,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>11</v>
@@ -1285,10 +1292,10 @@
         <v>20170929</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:8">
@@ -1299,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -1317,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1335,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1353,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1361,10 +1368,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
@@ -1375,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1393,7 +1400,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1405,10 +1412,10 @@
         <v>20170929</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1419,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1437,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1455,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1473,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1485,10 +1492,10 @@
         <v>20170929</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="120.75" spans="1:8">
@@ -1499,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1511,10 +1518,10 @@
         <v>20170929</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:8">
@@ -1525,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1555,7 +1562,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13046\Desktop\GG\weekReport\20170929周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>项目名称</t>
   </si>
@@ -79,6 +74,9 @@
   </si>
   <si>
     <t>陆晨曦</t>
+  </si>
+  <si>
+    <t>1.查询歌单内容接口参数及返回码xml解析和封装。 2.查询用户歌单接口参数及返回码xml解析和封装。 3.按歌单id查询歌单接口参数及返回码xml解析和封装</t>
   </si>
   <si>
     <t>赵小平</t>
@@ -106,6 +104,10 @@
   </si>
   <si>
     <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.修改MIGUMS系统中,已存在Nginx服务器显示逻辑
+2.修改并解决已发现的Bug</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -133,19 +135,18 @@
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
-  <si>
-    <t>1.查询歌单内容接口参数及返回码xml解析和封装。 2.查询用户歌单接口参数及返回码xml解析和封装。 3.按歌单id查询歌单接口参数及返回码xml解析和封装</t>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +157,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -173,12 +168,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -199,19 +188,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,12 +345,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -259,13 +570,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -277,58 +830,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -615,410 +1212,419 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="51.75" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>20170925</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>20170929</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="51.75" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="69" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>20170925</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>20170929</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="E11" s="6">
+        <v>20170925</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20170929</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" ht="103.5" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>20170925</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>20170929</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="120.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="120.75" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>20170925</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>20170929</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170929周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>项目名称</t>
   </si>
@@ -148,11 +143,21 @@
 </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.联调咪咕汇相关接口
+2.趣玩乐相关接口开发
+3灰度-聚合实现</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,12 +298,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +338,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -649,359 +654,363 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="48.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="53.77734375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
         <v>20170925</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>20170929</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="87" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
         <v>20170925</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>20170929</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
         <v>20170925</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>20170929</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
         <v>20170925</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>20170929</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="1:8" ht="121.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3">
         <v>20170925</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>20170929</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="120.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="1:8" ht="121.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
         <v>20170925</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>20170929</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1018,42 +1027,42 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20170929周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>项目名称</t>
   </si>
@@ -134,30 +139,34 @@
   </si>
   <si>
     <t>李春荣</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.28号版本接口开发与自测
 2.修改bug
 3.优化代码
 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.联调咪咕汇相关接口
 2.趣玩乐相关接口开发
 3灰度-聚合实现</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.与客户端联调
+2.与cms沟通发布内容调整</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,6 +186,19 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -218,24 +240,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -296,54 +305,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -407,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,9 +452,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,6 +504,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,369 +697,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
         <v>20170925</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>20170929</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9" t="s">
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="87" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
         <v>20170925</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>20170929</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20170925</v>
+      </c>
+      <c r="F10" s="5">
+        <v>20170929</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>20170925</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>20170929</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
+    <row r="12" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
         <v>20170925</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>20170929</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5">
         <v>20170925</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>20170929</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="121.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
+    <row r="14" spans="1:8" ht="120.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
         <v>20170925</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>20170929</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1027,48 +1084,48 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20170929周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>项目名称</t>
   </si>
@@ -95,6 +90,11 @@
   </si>
   <si>
     <t>王琪</t>
+  </si>
+  <si>
+    <t>1.联调咪咕汇相关接口
+2.趣玩乐相关接口开发
+3灰度-聚合实现</t>
   </si>
   <si>
     <t>罗健</t>
@@ -108,11 +108,24 @@
     <t>陈平</t>
   </si>
   <si>
+    <t>1.与客户端联调
+2.与cms沟通发布内容调整</t>
+  </si>
+  <si>
     <t>张文韬</t>
   </si>
   <si>
     <t>1.修改MIGUMS系统中,已存在Nginx服务器显示逻辑
 2.修改并解决已发现的Bug</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28号版本接口开发与自测
+2.修改bug
+3.优化代码
+</t>
   </si>
   <si>
     <t>曾昌林</t>
@@ -127,47 +140,33 @@
     <t>何娟</t>
   </si>
   <si>
-    <t>1、TLCSS系统拉分支，重构三线客服系统，设计原型界面
-2、根据需求重新建表，增加功能，改善系统：整合综合日志查询界面，添加消息即时通知功能，添加桌面菜单可自选常用功能。
-3、遇到问题：以前 很多代码都不能使用，需要更改每个模块源代码。</t>
+    <t>三线客服系统（重构）
+1、TLCSS系统拉分支，重构三线客服系统，设计原型界面
+2、根据需求重新建表，增加功能，改善系统：整合综合日志查询界面，添加消息即时通知功能，添加桌面菜单可自选常用功能，添加用户维度查询功能。
+3、遇到问题：原有很多代码都不能使用，需要更改每个模块源代码。
+4、更改操作手册文档</t>
+  </si>
+  <si>
+    <t>代码、文档</t>
   </si>
   <si>
     <t>袁常鑫</t>
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>李春荣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28号版本接口开发与自测
-2.修改bug
-3.优化代码
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.联调咪咕汇相关接口
-2.趣玩乐相关接口开发
-3灰度-聚合实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.与客户端联调
-2.与cms沟通发布内容调整</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,27 +177,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -208,12 +188,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -233,21 +207,162 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,12 +371,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -295,13 +596,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -313,64 +856,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -419,7 +1006,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,26 +1039,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,23 +1074,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -691,441 +1244,442 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="51.75" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>20170925</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>20170929</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="51.75" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="69" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>20170925</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>20170929</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="45" customHeight="1" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>20170925</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>20170929</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="34.5" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>20170925</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>20170929</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="86.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>20170925</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>20170929</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="103.5" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>20170925</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>20170929</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="120.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="155.25" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>20170925</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>20170929</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="G14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
       <c r="H17" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
+++ b/20170929周报/技术支撑服务人员周报日报-20170929.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>项目名称</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>20170925</t>
+  </si>
+  <si>
+    <t>20170929</t>
+  </si>
+  <si>
+    <t>演唱会相关资料的修改，MIGUM2.0及MUGUMS项目演唱会相关业务的跟踪，guava的学习与理解，项目中异步处理、消息队列等等功能的封装过程及原理的理解</t>
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
@@ -161,12 +170,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,51 +216,92 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,45 +316,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,46 +353,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,19 +380,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,37 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,37 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,79 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,11 +605,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,30 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -665,32 +683,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,136 +709,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -888,14 +885,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1253,7 +1250,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1542,7 +1539,7 @@
       <c r="F12" s="6">
         <v>20170929</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -1568,10 +1565,10 @@
       <c r="F13" s="6">
         <v>20170929</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1601,7 +1598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="69" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -1614,10 +1611,18 @@
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
+      <c r="E15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="8:8">
       <c r="H17" s="18"/>
@@ -1642,7 +1647,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
